--- a/biology/Médecine/1253_en_santé_et_médecine/1253_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1253_en_santé_et_médecine/1253_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1253_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1253_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1253 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1253_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1253_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Innocent IV charge les frères antonins de constituer « un hôpital ambulant, fondé pour suivre la cour pontificale dans tous ses déplacements[2] ».
-Fondation de l'hôpital Santa Fina de San Gimignano en Toscane[3].
-Construction à Tours, par Jean de Pontlevoy, de l'hôtel-Dieu de Saint-Jean-Baptiste-des-Ponts[4].
-Jean de Saint Gilles (ou Saint Égide) est appelé comme médecin au chevet de Robert Grossetête mourant[5].
-1252-1253 : fondation par Geoffroi de Pontual, évêque de Saint-Malo, d'une maison-Dieu sise au lieu-dit La Licorne, qui sera transférée en 1607 ou 1612 sur les terrains alors libérés par le sanitat, et qui est aux origines de l'actuel centre hospitalier de la ville[6],[7].
-1253-1255 : dans son Voyage dans l'Empire mongol, Guillaume de Rubrouck note que les médecins chinois « connaissent parfaitement les propriétés des plantes et qu’ils savent exactement comment prendre le pouls ; mais qu’ils dédaignent les urines et n'y connaissent rien[8] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Innocent IV charge les frères antonins de constituer « un hôpital ambulant, fondé pour suivre la cour pontificale dans tous ses déplacements ».
+Fondation de l'hôpital Santa Fina de San Gimignano en Toscane.
+Construction à Tours, par Jean de Pontlevoy, de l'hôtel-Dieu de Saint-Jean-Baptiste-des-Ponts.
+Jean de Saint Gilles (ou Saint Égide) est appelé comme médecin au chevet de Robert Grossetête mourant.
+1252-1253 : fondation par Geoffroi de Pontual, évêque de Saint-Malo, d'une maison-Dieu sise au lieu-dit La Licorne, qui sera transférée en 1607 ou 1612 sur les terrains alors libérés par le sanitat, et qui est aux origines de l'actuel centre hospitalier de la ville,.
+1253-1255 : dans son Voyage dans l'Empire mongol, Guillaume de Rubrouck note que les médecins chinois « connaissent parfaitement les propriétés des plantes et qu’ils savent exactement comment prendre le pouls ; mais qu’ils dédaignent les urines et n'y connaissent rien ».</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1253_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1253_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le médecin et chirurgien italien Bruno de Longoburgo (it) achève son traité de « grande chirurgie » (Chirurgia magna[9]).
-Le plus célèbre pédiatre chinois de son temps, Chen Wenzhong (1211-1280), publie le Xiao Er Bing Yuan Fang Lun, traité sur « les causes et le traitement des maladies infantiles[10],[11] ».
-Yan Honghe publie le Ji Sheng Fang (« Prescriptions pour aider la vie »), traité de médecine interne, chirurgie et gynécologie[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le médecin et chirurgien italien Bruno de Longoburgo (it) achève son traité de « grande chirurgie » (Chirurgia magna).
+Le plus célèbre pédiatre chinois de son temps, Chen Wenzhong (1211-1280), publie le Xiao Er Bing Yuan Fang Lun, traité sur « les causes et le traitement des maladies infantiles, ».
+Yan Honghe publie le Ji Sheng Fang (« Prescriptions pour aider la vie »), traité de médecine interne, chirurgie et gynécologie.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1253_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1253_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,11 +594,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Thomas L'Angles, barbier, cité dans une charte de l'abbaye Sainte-Croix de Bordeaux[12].
-1253-1273 : fl. Thomas de Weseham, médecin de Henri III, roi d'Angleterre[12].
-1253-1264 : fl. Remy, chapelain et médecin des papes Innocent IV et Urbain IV[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Thomas L'Angles, barbier, cité dans une charte de l'abbaye Sainte-Croix de Bordeaux.
+1253-1273 : fl. Thomas de Weseham, médecin de Henri III, roi d'Angleterre.
+1253-1264 : fl. Remy, chapelain et médecin des papes Innocent IV et Urbain IV.</t>
         </is>
       </c>
     </row>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1253_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1253_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Najmaddin Ahmad Nakhchivani (né à une date inconnue), médecin d'Azerbaïdjan, commentateur d'Avicenne[13].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Najmaddin Ahmad Nakhchivani (né à une date inconnue), médecin d'Azerbaïdjan, commentateur d'Avicenne.</t>
         </is>
       </c>
     </row>
